--- a/PasswordManager.Client/状态转移表.xlsx
+++ b/PasswordManager.Client/状态转移表.xlsx
@@ -1,21 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\编程\应用编程\密码管理器\PasswordManager\PasswordManager.Client\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA3520F8-A9AB-486F-B59F-FCD9401455DB}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{740988A5-5E83-4F53-919A-A1B290ED3866}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12105" xr2:uid="{B1E376E3-874C-4B32-B027-BDB1A682C61C}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12105" activeTab="1" xr2:uid="{B1E376E3-874C-4B32-B027-BDB1A682C61C}"/>
   </bookViews>
   <sheets>
     <sheet name="MainWindow" sheetId="1" r:id="rId1"/>
+    <sheet name="ItemDataEditor" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="37">
   <si>
     <t>Blank</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -139,6 +141,68 @@
   </si>
   <si>
     <t>如果没有正在显示且能关闭，Showing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未加载状态
+Unloaded</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通文本
+IsNormal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码
+IsPassword</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>链接
+IsLink</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分割线
+IsSplitter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加载
+Load</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>切换到普通文本
+SwitchToNormal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>切换到密码
+SwitchToPassword</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>切换到链接
+SwitchToLink</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>切换到分割线
+SwitchToSplitter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据项目转换状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保存数据后加载</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -511,8 +575,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE49A3B6-0B35-4823-B386-728A5F6CCA4A}">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -688,4 +752,141 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BCD8DE0-29E6-4B6D-87A0-BDA4396699D1}">
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="40.375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="17.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="6" width="17.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>